--- a/ML_CS7641/Optimization/FilpFlop-prob_size=200/final/result-FilpFlop-prob_size=200.xlsx
+++ b/ML_CS7641/Optimization/FilpFlop-prob_size=200/final/result-FilpFlop-prob_size=200.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,49 +448,40 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RHC</t>
+          <t>GA</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>2.917574882507324</v>
+      </c>
+      <c r="C2" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03897500038146973</v>
+        <v>0.08409786224365234</v>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.06441807746887207</v>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
           <t>MIMIC</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.01627302169799805</v>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
+      <c r="B4" t="n">
+        <v>142.7039875984192</v>
+      </c>
+      <c r="C4" t="n">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
